--- a/NformTester/NformTester/Keywordscripts/700.30.20_ExportAlarmHistoryofAlarmTypewithThreeTypes.xlsx
+++ b/NformTester/NformTester/Keywordscripts/700.30.20_ExportAlarmHistoryofAlarmTypewithThreeTypes.xlsx
@@ -1260,7 +1260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8023" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8020" uniqueCount="897">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3717,47 +3717,47 @@
   </si>
   <si>
     <t>Script Info</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Script Data</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Test Object</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>C:\\Nform\\bin\\NformViewer.exe</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Author</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Peter</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Version</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>1.0</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Create Date</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Update Date</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>Result</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>;Login.</t>
@@ -3772,254 +3772,248 @@
     <t>C</t>
   </si>
   <si>
-    <t>"{CONTROL down}{Akey}{CONTROL up}"</t>
-  </si>
-  <si>
     <t>Test Steps</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>;RT</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>FormName</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Component</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Action</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>ARG</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Result</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Administrator"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"admin"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"localhost"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Add Device</t>
+  </si>
+  <si>
+    <t>Running Range</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MultiSearch</t>
+  </si>
+  <si>
+    <t>$SNMP_SearchStart$</t>
+  </si>
+  <si>
+    <t>$SNMP_SearchEnd$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">;Export history </t>
+  </si>
+  <si>
+    <t>C:\Nform\log\Server.log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error </t>
+  </si>
+  <si>
+    <t>C:\Nform\log\Viewer.log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">;Clear configurations </t>
+  </si>
+  <si>
+    <t>MgdDeviceName</t>
+  </si>
+  <si>
+    <t>AlarmId</t>
+  </si>
+  <si>
+    <t>Equal</t>
+  </si>
+  <si>
+    <t>Sashimi</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Checked</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>,</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Create some alarms.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_Ip_Port$</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Trap_GXT_Trap$</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AlarmRecvDttm</t>
+  </si>
+  <si>
+    <t>MgdDeviceAddress</t>
+  </si>
+  <si>
+    <t>MgdElmtName</t>
+  </si>
+  <si>
+    <t>AlarmName</t>
+  </si>
+  <si>
+    <t>AlarmState</t>
+  </si>
+  <si>
+    <t>AlarmSev</t>
+  </si>
+  <si>
+    <t>AlarmStatus</t>
+  </si>
+  <si>
+    <t>AckDttm</t>
+  </si>
+  <si>
+    <t>AckUsrName</t>
+  </si>
+  <si>
+    <t>ClosedDttm</t>
+  </si>
+  <si>
+    <t>ClosedUsrName</t>
+  </si>
+  <si>
+    <t>Incident</t>
+  </si>
+  <si>
+    <t>;The goal of this test is to verify the 'Export alarm history' for three alarm types.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Precondition:1. Basic license should be added.2. Devices should be added.3. Nform should have received application (server start, stop, device monitoring started) alarms.4. Login to NformG2 application as an administrator user.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>; Scenario 1: Select the 'Alarm type' as 'Device Alarms'.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"C:\Nform\user\export\7003020_Export_Alarm testing.csv"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alarm history is exported successfully.</t>
+  </si>
+  <si>
+    <t>Equal</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>; Scenario 2: Select the 'Alarm type' as 'Application Alarms'.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enabled</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equal</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"C:\Nform\user\export\7003020_1_Export_Alarm testing.csv"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input Over Voltage</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>; Scenario 3: Select the 'Alarm type' as 'All Alarms'.</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equal</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>"C:\Nform\user\export\7003020_2_Export_Alarm testing.csv"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeleteLocalFile</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>F</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>"Administrator"</t>
+    <t>"AllDel"</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>"admin"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>"localhost"</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Add Device</t>
-  </si>
-  <si>
-    <t>Running Range</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>MultiSearch</t>
-  </si>
-  <si>
-    <t>$SNMP_SearchStart$</t>
-  </si>
-  <si>
-    <t>$SNMP_SearchEnd$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">;Export history </t>
-  </si>
-  <si>
-    <t>C:\Nform\log\Server.log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error </t>
-  </si>
-  <si>
-    <t>C:\Nform\log\Viewer.log</t>
-  </si>
-  <si>
-    <t xml:space="preserve">;Clear configurations </t>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormManaged_Devices</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>MgdDeviceName</t>
-  </si>
-  <si>
-    <t>AlarmId</t>
-  </si>
-  <si>
-    <t>Equal</t>
-  </si>
-  <si>
-    <t>Sashimi</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Checked</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Create some alarms.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_GXT_Ip_Port$</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>$Trap_GXT_Trap$</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pause</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>AlarmRecvDttm</t>
-  </si>
-  <si>
-    <t>MgdDeviceAddress</t>
-  </si>
-  <si>
-    <t>MgdElmtName</t>
-  </si>
-  <si>
-    <t>AlarmName</t>
-  </si>
-  <si>
-    <t>AlarmState</t>
-  </si>
-  <si>
-    <t>AlarmSev</t>
-  </si>
-  <si>
-    <t>AlarmStatus</t>
-  </si>
-  <si>
-    <t>AckDttm</t>
-  </si>
-  <si>
-    <t>AckUsrName</t>
-  </si>
-  <si>
-    <t>ClosedDttm</t>
-  </si>
-  <si>
-    <t>ClosedUsrName</t>
-  </si>
-  <si>
-    <t>Incident</t>
-  </si>
-  <si>
-    <t>;</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>;The goal of this test is to verify the 'Export alarm history' for three alarm types.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>;Precondition:1. Basic license should be added.2. Devices should be added.3. Nform should have received application (server start, stop, device monitoring started) alarms.4. Login to NformG2 application as an administrator user.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>; Scenario 1: Select the 'Alarm type' as 'Device Alarms'.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"C:\Nform\user\export\7003020_Export_Alarm testing.csv"</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alarm history is exported successfully.</t>
-  </si>
-  <si>
-    <t>Equal</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>; Scenario 2: Select the 'Alarm type' as 'Application Alarms'.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enabled</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equal</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"C:\Nform\user\export\7003020_1_Export_Alarm testing.csv"</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Input Over Voltage</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>; Scenario 3: Select the 'Alarm type' as 'All Alarms'.</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equal</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>"C:\Nform\user\export\7003020_2_Export_Alarm testing.csv"</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4097,22 +4091,6 @@
       <color indexed="53"/>
       <name val="Verdana"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -4194,89 +4172,83 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="3" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 2 2" xfId="3"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="常规 2 2" xfId="2"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -4295,74 +4267,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -4374,7 +4278,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -4651,16 +4555,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O120"/>
+  <dimension ref="A1:O121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B94" workbookViewId="0">
-      <selection activeCell="B115" sqref="A115:XFD120"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.75" style="16" customWidth="1"/>
-    <col min="2" max="2" width="23.375" style="16" customWidth="1"/>
+    <col min="1" max="1" width="16.75" style="15" customWidth="1"/>
+    <col min="2" max="2" width="23.375" style="15" customWidth="1"/>
     <col min="5" max="5" width="29.75" customWidth="1"/>
     <col min="6" max="6" width="29.25" customWidth="1"/>
     <col min="7" max="7" width="31.375" customWidth="1"/>
@@ -4678,40 +4582,40 @@
         <v>819</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>836</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>837</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>839</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>840</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15">
@@ -4743,34 +4647,28 @@
         <v>822</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>0</v>
+        <v>894</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>817</v>
+        <v>881</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
-        <v>842</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>844</v>
-      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="14"/>
+      <c r="N3" s="23"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
@@ -4786,10 +4684,10 @@
         <v>832</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="F4" s="3">
-        <v>4</v>
+        <v>894</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>888</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -4798,9 +4696,9 @@
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="14"/>
+      <c r="N4" s="23"/>
     </row>
-    <row r="5" spans="1:15" ht="15">
+    <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
         <v>826</v>
       </c>
@@ -4810,11 +4708,15 @@
       <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>882</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="D5" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>892</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -4822,9 +4724,9 @@
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="14"/>
+      <c r="N5" s="23"/>
     </row>
-    <row r="6" spans="1:15" ht="15">
+    <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
         <v>827</v>
       </c>
@@ -4834,35 +4736,49 @@
       <c r="C6" s="3">
         <v>5</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>883</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="D6" s="11" t="s">
+        <v>840</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>817</v>
+      </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>843</v>
+      </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="14"/>
     </row>
-    <row r="7" spans="1:15" ht="15">
+    <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
         <v>803</v>
       </c>
       <c r="B7" s="4">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>845</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="D7" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -4871,40 +4787,30 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="14"/>
-      <c r="O7" s="17"/>
+      <c r="O7" s="16"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" ht="15">
       <c r="A8" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>831</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>626</v>
-      </c>
+      <c r="D8" s="13" t="s">
+        <v>878</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
-        <v>847</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>848</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>849</v>
-      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="17"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="16"/>
     </row>
     <row r="9" spans="1:15" ht="15">
       <c r="A9" s="2" t="s">
@@ -4915,21 +4821,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>863</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="19"/>
-      <c r="O9" s="17"/>
+        <v>879</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="16"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" ht="15">
       <c r="A10" s="2" t="s">
         <v>804</v>
       </c>
@@ -4939,28 +4845,20 @@
       <c r="C10" s="3">
         <v>9</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>864</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>802</v>
-      </c>
+      <c r="D10" s="13" t="s">
+        <v>844</v>
+      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
-        <v>865</v>
-      </c>
-      <c r="I10" s="21">
-        <v>5</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>866</v>
-      </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="19"/>
-      <c r="O10" s="17"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="16"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="8"/>
@@ -4969,23 +4867,29 @@
         <v>10</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>799</v>
-      </c>
-      <c r="F11" s="3">
-        <v>5</v>
+        <v>831</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>626</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>848</v>
+      </c>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="17"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="16"/>
     </row>
     <row r="12" spans="1:15" ht="15">
       <c r="A12" s="2" t="s">
@@ -4996,92 +4900,92 @@
         <v>11</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>884</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="17"/>
+        <v>860</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="16"/>
     </row>
-    <row r="13" spans="1:15" ht="15">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:15">
+      <c r="A13" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="B13" s="23"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="3">
         <v>12</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>850</v>
-      </c>
-      <c r="E13" s="3"/>
+      <c r="D13" s="19" t="s">
+        <v>861</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>802</v>
+      </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="17"/>
+      <c r="H13" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="I13" s="20">
+        <v>5</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>863</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="16"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="21" t="s">
         <v>808</v>
       </c>
-      <c r="B14" s="23"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="3">
         <v>13</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+        <v>832</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>799</v>
+      </c>
+      <c r="F14" s="3">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="14"/>
-      <c r="O14" s="17"/>
+      <c r="O14" s="16"/>
     </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="22" t="s">
+    <row r="15" spans="1:15" ht="15">
+      <c r="A15" s="21" t="s">
         <v>809</v>
       </c>
-      <c r="B15" s="23"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="3">
         <v>14</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="D15" s="13" t="s">
+        <v>880</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -5089,28 +4993,22 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="14"/>
-      <c r="O15" s="17"/>
+      <c r="O15" s="16"/>
     </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="22" t="s">
+    <row r="16" spans="1:15" ht="15">
+      <c r="A16" s="21" t="s">
         <v>810</v>
       </c>
-      <c r="B16" s="23"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="3">
         <v>15</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="D16" s="13" t="s">
+        <v>849</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -5118,73 +5016,69 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="14"/>
-      <c r="O16" s="17"/>
+      <c r="O16" s="16"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="21" t="s">
         <v>811</v>
       </c>
-      <c r="B17" s="23"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="3">
         <v>16</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3" t="s">
-        <v>851</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="J17" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>830</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="14"/>
-      <c r="O17" s="17"/>
+      <c r="O17" s="16"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23" t="s">
+      <c r="A18" s="21"/>
+      <c r="B18" s="22" t="s">
         <v>812</v>
       </c>
       <c r="C18" s="3">
         <v>17</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3" t="s">
-        <v>853</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="J18" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>830</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="14"/>
-      <c r="O18" s="17"/>
+      <c r="O18" s="16"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="22"/>
-      <c r="B19" s="23" t="s">
+      <c r="A19" s="21"/>
+      <c r="B19" s="22" t="s">
         <v>813</v>
       </c>
       <c r="C19" s="3">
@@ -5193,95 +5087,93 @@
       <c r="D19" s="11" t="s">
         <v>830</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>736</v>
+      <c r="E19" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>741</v>
+        <v>87</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>861</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="J19" s="3" t="b">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="14"/>
-      <c r="O19" s="17"/>
+      <c r="O19" s="16"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="21" t="s">
         <v>814</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="22" t="s">
         <v>805</v>
       </c>
       <c r="C20" s="3">
         <v>19</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
+        <v>800</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="J20" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="14"/>
-      <c r="O20" s="17"/>
+      <c r="O20" s="16"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="21" t="s">
         <v>815</v>
       </c>
-      <c r="B21" s="23"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="3">
         <v>20</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>741</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
+        <v>800</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="J21" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="14"/>
-      <c r="O21" s="17"/>
+      <c r="O21" s="16"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="21" t="s">
         <v>816</v>
       </c>
-      <c r="B22" s="23"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="3">
         <v>21</v>
       </c>
@@ -5292,19 +5184,25 @@
         <v>736</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>417</v>
+        <v>741</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="J22" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="14"/>
-      <c r="O22" s="17"/>
+      <c r="O22" s="16"/>
     </row>
     <row r="23" spans="1:15">
       <c r="C23" s="3">
@@ -5317,14 +5215,12 @@
         <v>736</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>398</v>
+        <v>740</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>885</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -5332,7 +5228,7 @@
       <c r="M23" s="3"/>
       <c r="N23" s="14"/>
     </row>
-    <row r="24" spans="1:15" s="16" customFormat="1">
+    <row r="24" spans="1:15" s="15" customFormat="1">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="3">
@@ -5345,7 +5241,7 @@
         <v>736</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>17</v>
+        <v>741</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>2</v>
@@ -5357,23 +5253,25 @@
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
       <c r="N24" s="14"/>
-      <c r="O24" s="17"/>
+      <c r="O24" s="16"/>
     </row>
-    <row r="25" spans="1:15" s="16" customFormat="1">
+    <row r="25" spans="1:15" s="15" customFormat="1">
       <c r="C25" s="3">
         <v>24</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>867</v>
+        <v>830</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>868</v>
-      </c>
-      <c r="F25" s="3">
-        <v>5</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="18"/>
+        <v>736</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -5389,23 +5287,19 @@
         <v>830</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>762</v>
+        <v>398</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>886</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>888</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>887</v>
-      </c>
+        <v>881</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -5419,7 +5313,7 @@
         <v>830</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>17</v>
@@ -5440,22 +5334,18 @@
         <v>27</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>881</v>
+        <v>864</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F28" s="3"/>
+        <v>865</v>
+      </c>
+      <c r="F28" s="3">
+        <v>5</v>
+      </c>
       <c r="G28" s="3"/>
-      <c r="H28" s="3" t="s">
-        <v>851</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="J28" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="H28" s="17"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
@@ -5466,21 +5356,25 @@
         <v>28</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>881</v>
+        <v>830</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+        <v>746</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="H29" s="3" t="s">
-        <v>853</v>
+        <v>882</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="J29" s="3" t="b">
-        <v>0</v>
+        <v>884</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>883</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -5492,22 +5386,20 @@
         <v>29</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>869</v>
-      </c>
-      <c r="J30" s="3" t="b">
-        <v>1</v>
-      </c>
+        <v>746</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -5518,7 +5410,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>832</v>
+        <v>861</v>
       </c>
       <c r="E31" s="3" t="s">
         <v>800</v>
@@ -5526,13 +5418,13 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3" t="s">
-        <v>885</v>
+        <v>850</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="J31" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -5544,7 +5436,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>832</v>
+        <v>893</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>800</v>
@@ -5552,13 +5444,13 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3" t="s">
-        <v>885</v>
+        <v>852</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>870</v>
+        <v>851</v>
       </c>
       <c r="J32" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -5578,10 +5470,10 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="J33" s="3" t="b">
         <v>1</v>
@@ -5604,10 +5496,10 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="J34" s="3" t="b">
         <v>1</v>
@@ -5616,7 +5508,7 @@
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
       <c r="N34" s="14"/>
-      <c r="O34" s="16"/>
+      <c r="O34" s="15"/>
     </row>
     <row r="35" spans="3:15">
       <c r="C35" s="3">
@@ -5631,10 +5523,10 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="J35" s="3" t="b">
         <v>1</v>
@@ -5643,9 +5535,9 @@
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
       <c r="N35" s="14"/>
-      <c r="O35" s="16"/>
+      <c r="O35" s="15"/>
     </row>
-    <row r="36" spans="3:15" s="16" customFormat="1">
+    <row r="36" spans="3:15" s="15" customFormat="1">
       <c r="C36" s="3">
         <v>35</v>
       </c>
@@ -5658,10 +5550,10 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="J36" s="3" t="b">
         <v>1</v>
@@ -5671,7 +5563,7 @@
       <c r="M36" s="3"/>
       <c r="N36" s="14"/>
     </row>
-    <row r="37" spans="3:15" s="16" customFormat="1">
+    <row r="37" spans="3:15" s="15" customFormat="1">
       <c r="C37" s="3">
         <v>36</v>
       </c>
@@ -5684,10 +5576,10 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>874</v>
+        <v>855</v>
       </c>
       <c r="J37" s="3" t="b">
         <v>1</v>
@@ -5697,7 +5589,7 @@
       <c r="M37" s="3"/>
       <c r="N37" s="14"/>
     </row>
-    <row r="38" spans="3:15" s="16" customFormat="1">
+    <row r="38" spans="3:15" s="15" customFormat="1">
       <c r="C38" s="3">
         <v>37</v>
       </c>
@@ -5710,10 +5602,10 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="J38" s="3" t="b">
         <v>1</v>
@@ -5723,7 +5615,7 @@
       <c r="M38" s="3"/>
       <c r="N38" s="14"/>
     </row>
-    <row r="39" spans="3:15" s="16" customFormat="1">
+    <row r="39" spans="3:15" s="15" customFormat="1">
       <c r="C39" s="3">
         <v>38</v>
       </c>
@@ -5736,10 +5628,10 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="J39" s="3" t="b">
         <v>1</v>
@@ -5749,7 +5641,7 @@
       <c r="M39" s="3"/>
       <c r="N39" s="14"/>
     </row>
-    <row r="40" spans="3:15" s="16" customFormat="1">
+    <row r="40" spans="3:15" s="15" customFormat="1">
       <c r="C40" s="3">
         <v>39</v>
       </c>
@@ -5762,10 +5654,10 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="J40" s="3" t="b">
         <v>1</v>
@@ -5775,7 +5667,7 @@
       <c r="M40" s="3"/>
       <c r="N40" s="14"/>
     </row>
-    <row r="41" spans="3:15" s="16" customFormat="1">
+    <row r="41" spans="3:15" s="15" customFormat="1">
       <c r="C41" s="3">
         <v>40</v>
       </c>
@@ -5788,10 +5680,10 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="J41" s="3" t="b">
         <v>1</v>
@@ -5801,7 +5693,7 @@
       <c r="M41" s="3"/>
       <c r="N41" s="14"/>
     </row>
-    <row r="42" spans="3:15" s="16" customFormat="1">
+    <row r="42" spans="3:15" s="15" customFormat="1">
       <c r="C42" s="3">
         <v>41</v>
       </c>
@@ -5814,10 +5706,10 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="J42" s="3" t="b">
         <v>1</v>
@@ -5840,10 +5732,10 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="J43" s="3" t="b">
         <v>1</v>
@@ -5866,10 +5758,10 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>862</v>
+        <v>875</v>
       </c>
       <c r="J44" s="3" t="b">
         <v>1</v>
@@ -5879,82 +5771,94 @@
       <c r="M44" s="3"/>
       <c r="N44" s="14"/>
     </row>
-    <row r="45" spans="3:15" s="16" customFormat="1" ht="15">
+    <row r="45" spans="3:15" s="15" customFormat="1">
       <c r="C45" s="3">
         <v>44</v>
       </c>
-      <c r="D45" s="13" t="s">
-        <v>889</v>
-      </c>
-      <c r="E45" s="3"/>
+      <c r="D45" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>800</v>
+      </c>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
+      <c r="H45" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="J45" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="14"/>
     </row>
-    <row r="46" spans="3:15" s="16" customFormat="1" ht="15">
+    <row r="46" spans="3:15" s="15" customFormat="1">
       <c r="C46" s="3">
         <v>45</v>
       </c>
-      <c r="D46" s="13" t="s">
-        <v>850</v>
-      </c>
-      <c r="E46" s="3"/>
+      <c r="D46" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>800</v>
+      </c>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
+      <c r="H46" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="J46" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="14"/>
     </row>
-    <row r="47" spans="3:15" s="16" customFormat="1">
+    <row r="47" spans="3:15" s="15" customFormat="1">
       <c r="C47" s="3">
         <v>46</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="E47" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
+        <v>832</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="J47" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="14"/>
     </row>
-    <row r="48" spans="3:15" s="16" customFormat="1">
+    <row r="48" spans="3:15" s="15" customFormat="1" ht="15">
       <c r="C48" s="3">
         <v>47</v>
       </c>
-      <c r="D48" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="D48" s="13" t="s">
+        <v>885</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
@@ -5963,22 +5867,16 @@
       <c r="M48" s="3"/>
       <c r="N48" s="14"/>
     </row>
-    <row r="49" spans="3:14" s="16" customFormat="1">
+    <row r="49" spans="3:14" s="15" customFormat="1" ht="15">
       <c r="C49" s="3">
         <v>48</v>
       </c>
-      <c r="D49" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="E49" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="D49" s="13" t="s">
+        <v>849</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
@@ -5987,133 +5885,121 @@
       <c r="M49" s="3"/>
       <c r="N49" s="14"/>
     </row>
-    <row r="50" spans="3:14" s="16" customFormat="1">
+    <row r="50" spans="3:14" s="15" customFormat="1">
       <c r="C50" s="3">
         <v>49</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3" t="s">
-        <v>851</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="J50" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>830</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
       <c r="K50" s="3"/>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
       <c r="N50" s="14"/>
     </row>
-    <row r="51" spans="3:14" s="16" customFormat="1">
+    <row r="51" spans="3:14" s="15" customFormat="1">
       <c r="C51" s="3">
         <v>50</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3" t="s">
-        <v>853</v>
-      </c>
-      <c r="I51" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="J51" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>830</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
       <c r="K51" s="3"/>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="14"/>
     </row>
-    <row r="52" spans="3:14" s="16" customFormat="1">
+    <row r="52" spans="3:14" s="15" customFormat="1">
       <c r="C52" s="3">
         <v>51</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>830</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>736</v>
+      <c r="E52" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>741</v>
+        <v>87</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>861</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="J52" s="3" t="b">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="14"/>
     </row>
-    <row r="53" spans="3:14" s="16" customFormat="1">
+    <row r="53" spans="3:14" s="15" customFormat="1">
       <c r="C53" s="3">
         <v>52</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="F53" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
+        <v>800</v>
+      </c>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="J53" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="14"/>
     </row>
-    <row r="54" spans="3:14" s="16" customFormat="1">
+    <row r="54" spans="3:14" s="15" customFormat="1">
       <c r="C54" s="3">
         <v>53</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
       <c r="H54" s="3" t="s">
-        <v>890</v>
+        <v>852</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>891</v>
+        <v>851</v>
       </c>
       <c r="J54" s="3" t="b">
         <v>0</v>
@@ -6123,7 +6009,7 @@
       <c r="M54" s="3"/>
       <c r="N54" s="14"/>
     </row>
-    <row r="55" spans="3:14" s="16" customFormat="1">
+    <row r="55" spans="3:14" s="15" customFormat="1">
       <c r="C55" s="3">
         <v>54</v>
       </c>
@@ -6134,26 +6020,26 @@
         <v>736</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>416</v>
+        <v>741</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>890</v>
+        <v>858</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>891</v>
+        <v>856</v>
       </c>
       <c r="J55" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="14"/>
     </row>
-    <row r="56" spans="3:14" s="16" customFormat="1">
+    <row r="56" spans="3:14" s="15" customFormat="1">
       <c r="C56" s="3">
         <v>55</v>
       </c>
@@ -6164,14 +6050,12 @@
         <v>736</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>398</v>
+        <v>740</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>892</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
@@ -6179,7 +6063,7 @@
       <c r="M56" s="3"/>
       <c r="N56" s="14"/>
     </row>
-    <row r="57" spans="3:14" s="16" customFormat="1">
+    <row r="57" spans="3:14" s="15" customFormat="1">
       <c r="C57" s="3">
         <v>56</v>
       </c>
@@ -6190,42 +6074,56 @@
         <v>736</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>17</v>
+        <v>417</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="J57" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" s="14"/>
     </row>
-    <row r="58" spans="3:14" s="16" customFormat="1">
+    <row r="58" spans="3:14" s="15" customFormat="1">
       <c r="C58" s="3">
         <v>57</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>864</v>
+        <v>830</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>868</v>
-      </c>
-      <c r="F58" s="3">
-        <v>5</v>
-      </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
+        <v>736</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="J58" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
       <c r="N58" s="14"/>
     </row>
-    <row r="59" spans="3:14" s="16" customFormat="1">
+    <row r="59" spans="3:14" s="15" customFormat="1">
       <c r="C59" s="3">
         <v>58</v>
       </c>
@@ -6233,29 +6131,25 @@
         <v>830</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>762</v>
+        <v>398</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>886</v>
-      </c>
-      <c r="I59" s="3" t="s">
         <v>888</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>887</v>
-      </c>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
       <c r="N59" s="14"/>
     </row>
-    <row r="60" spans="3:14" s="16" customFormat="1">
+    <row r="60" spans="3:14" s="15" customFormat="1">
       <c r="C60" s="3">
         <v>59</v>
       </c>
@@ -6263,7 +6157,7 @@
         <v>830</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>17</v>
@@ -6279,90 +6173,88 @@
       <c r="M60" s="3"/>
       <c r="N60" s="14"/>
     </row>
-    <row r="61" spans="3:14" s="16" customFormat="1">
+    <row r="61" spans="3:14" s="15" customFormat="1">
       <c r="C61" s="3">
         <v>60</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>881</v>
+        <v>861</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F61" s="3"/>
+        <v>865</v>
+      </c>
+      <c r="F61" s="3">
+        <v>5</v>
+      </c>
       <c r="G61" s="3"/>
-      <c r="H61" s="3" t="s">
-        <v>851</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="J61" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="H61" s="17"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
       <c r="N61" s="14"/>
     </row>
-    <row r="62" spans="3:14" s="16" customFormat="1">
+    <row r="62" spans="3:14" s="15" customFormat="1">
       <c r="C62" s="3">
         <v>61</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>881</v>
+        <v>830</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
+        <v>746</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="H62" s="3" t="s">
-        <v>853</v>
+        <v>882</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="J62" s="3" t="b">
-        <v>0</v>
+        <v>884</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>883</v>
       </c>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
       <c r="N62" s="14"/>
     </row>
-    <row r="63" spans="3:14" s="16" customFormat="1">
+    <row r="63" spans="3:14" s="15" customFormat="1">
       <c r="C63" s="3">
         <v>62</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3" t="s">
-        <v>892</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>869</v>
-      </c>
-      <c r="J63" s="3" t="b">
-        <v>1</v>
-      </c>
+        <v>746</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
       <c r="K63" s="3"/>
       <c r="L63" s="3"/>
       <c r="M63" s="3"/>
       <c r="N63" s="14"/>
     </row>
-    <row r="64" spans="3:14" s="16" customFormat="1">
+    <row r="64" spans="3:14" s="15" customFormat="1">
       <c r="C64" s="3">
         <v>63</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>832</v>
+        <v>861</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>800</v>
@@ -6370,25 +6262,25 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3" t="s">
-        <v>892</v>
+        <v>850</v>
       </c>
       <c r="I64" s="3" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="J64" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K64" s="3"/>
       <c r="L64" s="3"/>
       <c r="M64" s="3"/>
       <c r="N64" s="14"/>
     </row>
-    <row r="65" spans="3:14" s="16" customFormat="1">
+    <row r="65" spans="3:14" s="15" customFormat="1">
       <c r="C65" s="3">
         <v>64</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>832</v>
+        <v>861</v>
       </c>
       <c r="E65" s="3" t="s">
         <v>800</v>
@@ -6396,20 +6288,20 @@
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
       <c r="H65" s="3" t="s">
-        <v>892</v>
+        <v>852</v>
       </c>
       <c r="I65" s="3" t="s">
-        <v>870</v>
+        <v>851</v>
       </c>
       <c r="J65" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" s="3"/>
       <c r="L65" s="3"/>
       <c r="M65" s="3"/>
       <c r="N65" s="14"/>
     </row>
-    <row r="66" spans="3:14" s="16" customFormat="1">
+    <row r="66" spans="3:14" s="15" customFormat="1">
       <c r="C66" s="3">
         <v>65</v>
       </c>
@@ -6422,10 +6314,10 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="J66" s="3" t="b">
         <v>1</v>
@@ -6435,7 +6327,7 @@
       <c r="M66" s="3"/>
       <c r="N66" s="14"/>
     </row>
-    <row r="67" spans="3:14" s="16" customFormat="1">
+    <row r="67" spans="3:14" s="15" customFormat="1">
       <c r="C67" s="3">
         <v>66</v>
       </c>
@@ -6448,10 +6340,10 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="J67" s="3" t="b">
         <v>1</v>
@@ -6461,7 +6353,7 @@
       <c r="M67" s="3"/>
       <c r="N67" s="14"/>
     </row>
-    <row r="68" spans="3:14" s="16" customFormat="1">
+    <row r="68" spans="3:14" s="15" customFormat="1">
       <c r="C68" s="3">
         <v>67</v>
       </c>
@@ -6474,10 +6366,10 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="J68" s="3" t="b">
         <v>1</v>
@@ -6487,7 +6379,7 @@
       <c r="M68" s="3"/>
       <c r="N68" s="14"/>
     </row>
-    <row r="69" spans="3:14" s="16" customFormat="1">
+    <row r="69" spans="3:14" s="15" customFormat="1">
       <c r="C69" s="3">
         <v>68</v>
       </c>
@@ -6500,10 +6392,10 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="J69" s="3" t="b">
         <v>1</v>
@@ -6513,7 +6405,7 @@
       <c r="M69" s="3"/>
       <c r="N69" s="14"/>
     </row>
-    <row r="70" spans="3:14" s="16" customFormat="1">
+    <row r="70" spans="3:14" s="15" customFormat="1">
       <c r="C70" s="3">
         <v>69</v>
       </c>
@@ -6526,10 +6418,10 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="I70" s="3" t="s">
-        <v>874</v>
+        <v>855</v>
       </c>
       <c r="J70" s="3" t="b">
         <v>1</v>
@@ -6539,7 +6431,7 @@
       <c r="M70" s="3"/>
       <c r="N70" s="14"/>
     </row>
-    <row r="71" spans="3:14" s="16" customFormat="1">
+    <row r="71" spans="3:14" s="15" customFormat="1">
       <c r="C71" s="3">
         <v>70</v>
       </c>
@@ -6552,10 +6444,10 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="J71" s="3" t="b">
         <v>1</v>
@@ -6565,7 +6457,7 @@
       <c r="M71" s="3"/>
       <c r="N71" s="14"/>
     </row>
-    <row r="72" spans="3:14" s="16" customFormat="1">
+    <row r="72" spans="3:14" s="15" customFormat="1">
       <c r="C72" s="3">
         <v>71</v>
       </c>
@@ -6578,10 +6470,10 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="J72" s="3" t="b">
         <v>1</v>
@@ -6591,7 +6483,7 @@
       <c r="M72" s="3"/>
       <c r="N72" s="14"/>
     </row>
-    <row r="73" spans="3:14" s="16" customFormat="1">
+    <row r="73" spans="3:14" s="15" customFormat="1">
       <c r="C73" s="3">
         <v>72</v>
       </c>
@@ -6604,10 +6496,10 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="J73" s="3" t="b">
         <v>1</v>
@@ -6617,7 +6509,7 @@
       <c r="M73" s="3"/>
       <c r="N73" s="14"/>
     </row>
-    <row r="74" spans="3:14" s="16" customFormat="1">
+    <row r="74" spans="3:14" s="15" customFormat="1">
       <c r="C74" s="3">
         <v>73</v>
       </c>
@@ -6630,10 +6522,10 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="J74" s="3" t="b">
         <v>1</v>
@@ -6643,7 +6535,7 @@
       <c r="M74" s="3"/>
       <c r="N74" s="14"/>
     </row>
-    <row r="75" spans="3:14" s="16" customFormat="1">
+    <row r="75" spans="3:14" s="15" customFormat="1">
       <c r="C75" s="3">
         <v>74</v>
       </c>
@@ -6656,10 +6548,10 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="J75" s="3" t="b">
         <v>1</v>
@@ -6669,7 +6561,7 @@
       <c r="M75" s="3"/>
       <c r="N75" s="14"/>
     </row>
-    <row r="76" spans="3:14" s="16" customFormat="1">
+    <row r="76" spans="3:14" s="15" customFormat="1">
       <c r="C76" s="3">
         <v>75</v>
       </c>
@@ -6682,10 +6574,10 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="J76" s="3" t="b">
         <v>1</v>
@@ -6695,7 +6587,7 @@
       <c r="M76" s="3"/>
       <c r="N76" s="14"/>
     </row>
-    <row r="77" spans="3:14" s="16" customFormat="1">
+    <row r="77" spans="3:14" s="15" customFormat="1">
       <c r="C77" s="3">
         <v>76</v>
       </c>
@@ -6708,10 +6600,10 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>862</v>
+        <v>875</v>
       </c>
       <c r="J77" s="3" t="b">
         <v>1</v>
@@ -6721,7 +6613,7 @@
       <c r="M77" s="3"/>
       <c r="N77" s="14"/>
     </row>
-    <row r="78" spans="3:14" s="16" customFormat="1">
+    <row r="78" spans="3:14" s="15" customFormat="1">
       <c r="C78" s="3">
         <v>77</v>
       </c>
@@ -6734,95 +6626,107 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>893</v>
+        <v>876</v>
       </c>
       <c r="J78" s="3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78" s="3"/>
       <c r="L78" s="3"/>
       <c r="M78" s="3"/>
       <c r="N78" s="14"/>
     </row>
-    <row r="79" spans="3:14" s="16" customFormat="1" ht="15">
+    <row r="79" spans="3:14" s="15" customFormat="1">
       <c r="C79" s="3">
         <v>78</v>
       </c>
-      <c r="D79" s="13" t="s">
-        <v>894</v>
-      </c>
-      <c r="E79" s="3"/>
+      <c r="D79" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>800</v>
+      </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
+      <c r="H79" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="J79" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="K79" s="3"/>
       <c r="L79" s="3"/>
       <c r="M79" s="3"/>
       <c r="N79" s="14"/>
     </row>
-    <row r="80" spans="3:14" s="16" customFormat="1" ht="15">
+    <row r="80" spans="3:14" s="15" customFormat="1">
       <c r="C80" s="3">
         <v>79</v>
       </c>
-      <c r="D80" s="13" t="s">
-        <v>850</v>
-      </c>
-      <c r="E80" s="3"/>
+      <c r="D80" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>800</v>
+      </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
+      <c r="H80" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="J80" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
       <c r="N80" s="14"/>
     </row>
-    <row r="81" spans="3:14" s="16" customFormat="1">
+    <row r="81" spans="3:14" s="15" customFormat="1">
       <c r="C81" s="3">
         <v>80</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="E81" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
+        <v>832</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="J81" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
       <c r="N81" s="14"/>
     </row>
-    <row r="82" spans="3:14" s="16" customFormat="1">
+    <row r="82" spans="3:14" s="15" customFormat="1" ht="15">
       <c r="C82" s="3">
         <v>81</v>
       </c>
-      <c r="D82" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="E82" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="D82" s="13" t="s">
+        <v>890</v>
+      </c>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
@@ -6831,22 +6735,16 @@
       <c r="M82" s="3"/>
       <c r="N82" s="14"/>
     </row>
-    <row r="83" spans="3:14" s="16" customFormat="1">
+    <row r="83" spans="3:14" s="15" customFormat="1" ht="15">
       <c r="C83" s="3">
         <v>82</v>
       </c>
-      <c r="D83" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="E83" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="D83" s="13" t="s">
+        <v>849</v>
+      </c>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
@@ -6855,133 +6753,121 @@
       <c r="M83" s="3"/>
       <c r="N83" s="14"/>
     </row>
-    <row r="84" spans="3:14" s="16" customFormat="1">
+    <row r="84" spans="3:14" s="15" customFormat="1">
       <c r="C84" s="3">
         <v>83</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F84" s="3"/>
-      <c r="G84" s="3"/>
-      <c r="H84" s="3" t="s">
-        <v>851</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="J84" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>830</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
       <c r="K84" s="3"/>
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
       <c r="N84" s="14"/>
     </row>
-    <row r="85" spans="3:14" s="16" customFormat="1">
+    <row r="85" spans="3:14" s="15" customFormat="1">
       <c r="C85" s="3">
         <v>84</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3" t="s">
-        <v>853</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="J85" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>830</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
       <c r="N85" s="14"/>
     </row>
-    <row r="86" spans="3:14" s="16" customFormat="1">
+    <row r="86" spans="3:14" s="15" customFormat="1">
       <c r="C86" s="3">
         <v>85</v>
       </c>
       <c r="D86" s="11" t="s">
         <v>830</v>
       </c>
-      <c r="E86" s="3" t="s">
-        <v>736</v>
+      <c r="E86" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>890</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>895</v>
-      </c>
-      <c r="J86" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
       <c r="N86" s="14"/>
     </row>
-    <row r="87" spans="3:14" s="16" customFormat="1">
+    <row r="87" spans="3:14" s="15" customFormat="1">
       <c r="C87" s="3">
         <v>86</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="J87" s="3"/>
+        <v>800</v>
+      </c>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="J87" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
       <c r="N87" s="14"/>
     </row>
-    <row r="88" spans="3:14" s="16" customFormat="1">
+    <row r="88" spans="3:14" s="15" customFormat="1">
       <c r="C88" s="3">
         <v>87</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>736</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
       <c r="H88" s="3" t="s">
-        <v>890</v>
+        <v>852</v>
       </c>
       <c r="I88" s="3" t="s">
-        <v>891</v>
+        <v>851</v>
       </c>
       <c r="J88" s="3" t="b">
         <v>0</v>
@@ -6991,7 +6877,7 @@
       <c r="M88" s="3"/>
       <c r="N88" s="14"/>
     </row>
-    <row r="89" spans="3:14" s="16" customFormat="1">
+    <row r="89" spans="3:14" s="15" customFormat="1">
       <c r="C89" s="3">
         <v>88</v>
       </c>
@@ -7002,13 +6888,13 @@
         <v>736</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>416</v>
+        <v>17</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>7</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>891</v>
@@ -7021,7 +6907,7 @@
       <c r="M89" s="3"/>
       <c r="N89" s="14"/>
     </row>
-    <row r="90" spans="3:14" s="16" customFormat="1">
+    <row r="90" spans="3:14" s="15" customFormat="1">
       <c r="C90" s="3">
         <v>89</v>
       </c>
@@ -7032,26 +6918,20 @@
         <v>736</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>17</v>
+        <v>739</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>890</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>895</v>
-      </c>
-      <c r="J90" s="3" t="b">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="14"/>
     </row>
-    <row r="91" spans="3:14" s="16" customFormat="1">
+    <row r="91" spans="3:14" s="15" customFormat="1">
       <c r="C91" s="3">
         <v>90</v>
       </c>
@@ -7062,22 +6942,26 @@
         <v>736</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>398</v>
+        <v>417</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>896</v>
-      </c>
-      <c r="I91" s="3"/>
-      <c r="J91" s="3"/>
+        <v>886</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="J91" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
       <c r="N91" s="14"/>
     </row>
-    <row r="92" spans="3:14" s="16" customFormat="1">
+    <row r="92" spans="3:14" s="15" customFormat="1">
       <c r="C92" s="3">
         <v>91</v>
       </c>
@@ -7088,42 +6972,56 @@
         <v>736</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>17</v>
+        <v>416</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H92" s="3"/>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="J92" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
       <c r="N92" s="14"/>
     </row>
-    <row r="93" spans="3:14" s="16" customFormat="1">
+    <row r="93" spans="3:14" s="15" customFormat="1">
       <c r="C93" s="3">
         <v>92</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>864</v>
+        <v>830</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>868</v>
-      </c>
-      <c r="F93" s="3">
-        <v>5</v>
-      </c>
-      <c r="G93" s="3"/>
-      <c r="H93" s="18"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
+        <v>736</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="J93" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
       <c r="N93" s="14"/>
     </row>
-    <row r="94" spans="3:14" s="16" customFormat="1">
+    <row r="94" spans="3:14" s="15" customFormat="1">
       <c r="C94" s="3">
         <v>93</v>
       </c>
@@ -7131,29 +7029,25 @@
         <v>830</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>762</v>
+        <v>398</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>886</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>888</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>887</v>
-      </c>
+        <v>892</v>
+      </c>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
       <c r="N94" s="14"/>
     </row>
-    <row r="95" spans="3:14" s="16" customFormat="1">
+    <row r="95" spans="3:14" s="15" customFormat="1">
       <c r="C95" s="3">
         <v>94</v>
       </c>
@@ -7161,7 +7055,7 @@
         <v>830</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>17</v>
@@ -7177,90 +7071,88 @@
       <c r="M95" s="3"/>
       <c r="N95" s="14"/>
     </row>
-    <row r="96" spans="3:14" s="16" customFormat="1">
+    <row r="96" spans="3:14" s="15" customFormat="1">
       <c r="C96" s="3">
         <v>95</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>881</v>
+        <v>861</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F96" s="3"/>
+        <v>865</v>
+      </c>
+      <c r="F96" s="3">
+        <v>5</v>
+      </c>
       <c r="G96" s="3"/>
-      <c r="H96" s="3" t="s">
-        <v>851</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="J96" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="H96" s="17"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
       <c r="N96" s="14"/>
     </row>
-    <row r="97" spans="3:14" s="16" customFormat="1">
+    <row r="97" spans="3:14" s="15" customFormat="1">
       <c r="C97" s="3">
         <v>96</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>881</v>
+        <v>830</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F97" s="3"/>
-      <c r="G97" s="3"/>
+        <v>746</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="H97" s="3" t="s">
-        <v>853</v>
+        <v>882</v>
       </c>
       <c r="I97" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="J97" s="3" t="b">
-        <v>0</v>
+        <v>884</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>883</v>
       </c>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
       <c r="N97" s="14"/>
     </row>
-    <row r="98" spans="3:14" s="16" customFormat="1">
+    <row r="98" spans="3:14" s="15" customFormat="1">
       <c r="C98" s="3">
         <v>97</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3" t="s">
-        <v>896</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>869</v>
-      </c>
-      <c r="J98" s="3" t="b">
-        <v>1</v>
-      </c>
+        <v>746</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
       <c r="N98" s="14"/>
     </row>
-    <row r="99" spans="3:14" s="16" customFormat="1">
+    <row r="99" spans="3:14" s="15" customFormat="1">
       <c r="C99" s="3">
         <v>98</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>832</v>
+        <v>861</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>800</v>
@@ -7268,25 +7160,25 @@
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3" t="s">
-        <v>896</v>
+        <v>850</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="J99" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
       <c r="M99" s="3"/>
       <c r="N99" s="14"/>
     </row>
-    <row r="100" spans="3:14" s="16" customFormat="1">
+    <row r="100" spans="3:14" s="15" customFormat="1">
       <c r="C100" s="3">
         <v>99</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>832</v>
+        <v>861</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>800</v>
@@ -7294,20 +7186,20 @@
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3" t="s">
-        <v>896</v>
+        <v>852</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>870</v>
+        <v>851</v>
       </c>
       <c r="J100" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
       <c r="M100" s="3"/>
       <c r="N100" s="14"/>
     </row>
-    <row r="101" spans="3:14" s="16" customFormat="1">
+    <row r="101" spans="3:14" s="15" customFormat="1">
       <c r="C101" s="3">
         <v>100</v>
       </c>
@@ -7320,10 +7212,10 @@
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="J101" s="3" t="b">
         <v>1</v>
@@ -7333,7 +7225,7 @@
       <c r="M101" s="3"/>
       <c r="N101" s="14"/>
     </row>
-    <row r="102" spans="3:14" s="16" customFormat="1">
+    <row r="102" spans="3:14" s="15" customFormat="1">
       <c r="C102" s="3">
         <v>101</v>
       </c>
@@ -7346,10 +7238,10 @@
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="J102" s="3" t="b">
         <v>1</v>
@@ -7359,7 +7251,7 @@
       <c r="M102" s="3"/>
       <c r="N102" s="14"/>
     </row>
-    <row r="103" spans="3:14" s="16" customFormat="1">
+    <row r="103" spans="3:14" s="15" customFormat="1">
       <c r="C103" s="3">
         <v>102</v>
       </c>
@@ -7372,10 +7264,10 @@
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="J103" s="3" t="b">
         <v>1</v>
@@ -7385,7 +7277,7 @@
       <c r="M103" s="3"/>
       <c r="N103" s="14"/>
     </row>
-    <row r="104" spans="3:14" s="16" customFormat="1">
+    <row r="104" spans="3:14" s="15" customFormat="1">
       <c r="C104" s="3">
         <v>103</v>
       </c>
@@ -7398,10 +7290,10 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="J104" s="3" t="b">
         <v>1</v>
@@ -7411,7 +7303,7 @@
       <c r="M104" s="3"/>
       <c r="N104" s="14"/>
     </row>
-    <row r="105" spans="3:14" s="16" customFormat="1">
+    <row r="105" spans="3:14" s="15" customFormat="1">
       <c r="C105" s="3">
         <v>104</v>
       </c>
@@ -7424,10 +7316,10 @@
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>874</v>
+        <v>855</v>
       </c>
       <c r="J105" s="3" t="b">
         <v>1</v>
@@ -7437,7 +7329,7 @@
       <c r="M105" s="3"/>
       <c r="N105" s="14"/>
     </row>
-    <row r="106" spans="3:14" s="16" customFormat="1">
+    <row r="106" spans="3:14" s="15" customFormat="1">
       <c r="C106" s="3">
         <v>105</v>
       </c>
@@ -7450,10 +7342,10 @@
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="J106" s="3" t="b">
         <v>1</v>
@@ -7463,7 +7355,7 @@
       <c r="M106" s="3"/>
       <c r="N106" s="14"/>
     </row>
-    <row r="107" spans="3:14" s="16" customFormat="1">
+    <row r="107" spans="3:14" s="15" customFormat="1">
       <c r="C107" s="3">
         <v>106</v>
       </c>
@@ -7476,10 +7368,10 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="J107" s="3" t="b">
         <v>1</v>
@@ -7489,7 +7381,7 @@
       <c r="M107" s="3"/>
       <c r="N107" s="14"/>
     </row>
-    <row r="108" spans="3:14" s="16" customFormat="1">
+    <row r="108" spans="3:14" s="15" customFormat="1">
       <c r="C108" s="3">
         <v>107</v>
       </c>
@@ -7502,10 +7394,10 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="J108" s="3" t="b">
         <v>1</v>
@@ -7515,7 +7407,7 @@
       <c r="M108" s="3"/>
       <c r="N108" s="14"/>
     </row>
-    <row r="109" spans="3:14" s="16" customFormat="1">
+    <row r="109" spans="3:14" s="15" customFormat="1">
       <c r="C109" s="3">
         <v>108</v>
       </c>
@@ -7528,10 +7420,10 @@
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="J109" s="3" t="b">
         <v>1</v>
@@ -7541,7 +7433,7 @@
       <c r="M109" s="3"/>
       <c r="N109" s="14"/>
     </row>
-    <row r="110" spans="3:14" s="16" customFormat="1">
+    <row r="110" spans="3:14" s="15" customFormat="1">
       <c r="C110" s="3">
         <v>109</v>
       </c>
@@ -7554,10 +7446,10 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="J110" s="3" t="b">
         <v>1</v>
@@ -7567,7 +7459,7 @@
       <c r="M110" s="3"/>
       <c r="N110" s="14"/>
     </row>
-    <row r="111" spans="3:14" s="16" customFormat="1">
+    <row r="111" spans="3:14" s="15" customFormat="1">
       <c r="C111" s="3">
         <v>110</v>
       </c>
@@ -7580,10 +7472,10 @@
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="J111" s="3" t="b">
         <v>1</v>
@@ -7593,7 +7485,7 @@
       <c r="M111" s="3"/>
       <c r="N111" s="14"/>
     </row>
-    <row r="112" spans="3:14" s="16" customFormat="1">
+    <row r="112" spans="3:14" s="15" customFormat="1">
       <c r="C112" s="3">
         <v>111</v>
       </c>
@@ -7606,10 +7498,10 @@
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
       <c r="H112" s="3" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>862</v>
+        <v>875</v>
       </c>
       <c r="J112" s="3" t="b">
         <v>1</v>
@@ -7619,7 +7511,7 @@
       <c r="M112" s="3"/>
       <c r="N112" s="14"/>
     </row>
-    <row r="113" spans="3:14" s="16" customFormat="1">
+    <row r="113" spans="3:14" s="15" customFormat="1">
       <c r="C113" s="3">
         <v>112</v>
       </c>
@@ -7632,10 +7524,10 @@
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
       <c r="H113" s="3" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>893</v>
+        <v>876</v>
       </c>
       <c r="J113" s="3" t="b">
         <v>1</v>
@@ -7645,19 +7537,27 @@
       <c r="M113" s="3"/>
       <c r="N113" s="14"/>
     </row>
-    <row r="114" spans="3:14" ht="15">
+    <row r="114" spans="3:14">
       <c r="C114" s="3">
         <v>113</v>
       </c>
-      <c r="D114" s="13" t="s">
-        <v>854</v>
-      </c>
-      <c r="E114" s="3"/>
+      <c r="D114" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>800</v>
+      </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
-      <c r="H114" s="3"/>
-      <c r="I114" s="3"/>
-      <c r="J114" s="3"/>
+      <c r="H114" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="J114" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
       <c r="M114" s="3"/>
@@ -7668,20 +7568,22 @@
         <v>114</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="E115" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H115" s="21"/>
-      <c r="I115" s="21"/>
-      <c r="J115" s="3"/>
+        <v>832</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
+      <c r="H115" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="J115" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
       <c r="M115" s="3"/>
@@ -7692,44 +7594,38 @@
         <v>115</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>855</v>
-      </c>
-      <c r="E116" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H116" s="21"/>
-      <c r="I116" s="21"/>
-      <c r="J116" s="3"/>
+        <v>832</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="J116" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="K116" s="3"/>
       <c r="L116" s="3"/>
       <c r="M116" s="3"/>
       <c r="N116" s="14"/>
     </row>
-    <row r="117" spans="3:14">
+    <row r="117" spans="3:14" ht="15">
       <c r="C117" s="3">
         <v>116</v>
       </c>
-      <c r="D117" s="11" t="s">
-        <v>855</v>
-      </c>
-      <c r="E117" s="21" t="s">
-        <v>856</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H117" s="3" t="s">
-        <v>833</v>
-      </c>
+      <c r="D117" s="13" t="s">
+        <v>853</v>
+      </c>
+      <c r="E117" s="3"/>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3"/>
       <c r="I117" s="3"/>
       <c r="J117" s="3"/>
       <c r="K117" s="3"/>
@@ -7737,23 +7633,23 @@
       <c r="M117" s="3"/>
       <c r="N117" s="14"/>
     </row>
-    <row r="118" spans="3:14" ht="14.25">
+    <row r="118" spans="3:14">
       <c r="C118" s="3">
         <v>117</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>855</v>
-      </c>
-      <c r="E118" s="21" t="s">
-        <v>856</v>
+        <v>895</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>620</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H118" s="15"/>
+        <v>627</v>
+      </c>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3" t="s">
+        <v>896</v>
+      </c>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
       <c r="K118" s="3"/>
@@ -7766,70 +7662,65 @@
         <v>118</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>855</v>
+        <v>832</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>628</v>
+        <v>894</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="G119" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H119" s="21"/>
-      <c r="I119" s="3"/>
-      <c r="J119" s="3"/>
-      <c r="K119" s="3"/>
-      <c r="L119" s="3"/>
-      <c r="M119" s="3"/>
-      <c r="N119" s="14"/>
+        <v>881</v>
+      </c>
     </row>
     <row r="120" spans="3:14">
       <c r="C120" s="3">
         <v>119</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>855</v>
-      </c>
-      <c r="E120" s="21" t="s">
-        <v>856</v>
+        <v>832</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>894</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H120" s="21"/>
-      <c r="I120" s="21"/>
-      <c r="J120" s="3"/>
-      <c r="K120" s="3"/>
-      <c r="L120" s="3"/>
-      <c r="M120" s="3"/>
-      <c r="N120" s="14"/>
+        <v>888</v>
+      </c>
+    </row>
+    <row r="121" spans="3:14">
+      <c r="C121" s="3">
+        <v>120</v>
+      </c>
+      <c r="D121" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="G121" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N120">
-    <cfRule type="cellIs" dxfId="1" priority="25" stopIfTrue="1" operator="equal">
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="N2:N118">
+    <cfRule type="cellIs" dxfId="1" priority="29" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="30" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H10 G118:G120 G2:G116">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H13 G2:G118 G121">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D115 D3:D4 D14:D44 D10:D11 D47:D78 D81:D113">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D119:D121 D84:D116 D50:D81 D13:D14 D17:D47 D3:D7">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F120">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F6:F118">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E120">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E121">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
@@ -11742,7 +11633,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -30800,7 +30691,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -31054,7 +30945,7 @@
       <c r="B44" s="12"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/NformTester/NformTester/Keywordscripts/700.30.20_ExportAlarmHistoryofAlarmTypewithThreeTypes.xlsx
+++ b/NformTester/NformTester/Keywordscripts/700.30.20_ExportAlarmHistoryofAlarmTypewithThreeTypes.xlsx
@@ -3876,10 +3876,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_Ip_Port$</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>$Trap_GXT_Trap$</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -4001,6 +3997,9 @@
   <si>
     <t>"AllDel"</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Trap_GXT_Port$</t>
   </si>
 </sst>
 </file>
@@ -4557,8 +4556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4656,10 +4655,10 @@
         <v>832</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -4684,10 +4683,10 @@
         <v>832</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -4712,10 +4711,10 @@
         <v>832</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -4798,7 +4797,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -4821,7 +4820,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -4931,13 +4930,13 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="I13" s="20">
+        <v>5</v>
+      </c>
+      <c r="J13" s="20" t="s">
         <v>862</v>
-      </c>
-      <c r="I13" s="20">
-        <v>5</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>863</v>
       </c>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
@@ -4981,7 +4980,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -5296,7 +5295,7 @@
         <v>4</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -5334,10 +5333,10 @@
         <v>27</v>
       </c>
       <c r="D28" s="11" t="s">
+        <v>863</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>864</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>865</v>
       </c>
       <c r="F28" s="3">
         <v>5</v>
@@ -5368,13 +5367,13 @@
         <v>7</v>
       </c>
       <c r="H29" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>882</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>884</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>883</v>
       </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -5436,7 +5435,7 @@
         <v>31</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>800</v>
@@ -5470,10 +5469,10 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="J33" s="3" t="b">
         <v>1</v>
@@ -5496,7 +5495,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>854</v>
@@ -5523,10 +5522,10 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="J35" s="3" t="b">
         <v>1</v>
@@ -5550,10 +5549,10 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="J36" s="3" t="b">
         <v>1</v>
@@ -5576,7 +5575,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>855</v>
@@ -5602,10 +5601,10 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="J38" s="3" t="b">
         <v>1</v>
@@ -5628,10 +5627,10 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="J39" s="3" t="b">
         <v>1</v>
@@ -5654,10 +5653,10 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="J40" s="3" t="b">
         <v>1</v>
@@ -5680,10 +5679,10 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J41" s="3" t="b">
         <v>1</v>
@@ -5706,10 +5705,10 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J42" s="3" t="b">
         <v>1</v>
@@ -5732,10 +5731,10 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I43" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J43" s="3" t="b">
         <v>1</v>
@@ -5758,10 +5757,10 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I44" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="J44" s="3" t="b">
         <v>1</v>
@@ -5784,10 +5783,10 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I45" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J45" s="3" t="b">
         <v>1</v>
@@ -5810,10 +5809,10 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I46" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J46" s="3" t="b">
         <v>1</v>
@@ -5836,7 +5835,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>859</v>
@@ -5854,7 +5853,7 @@
         <v>47</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -6080,10 +6079,10 @@
         <v>7</v>
       </c>
       <c r="H57" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="I57" s="3" t="s">
         <v>886</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>887</v>
       </c>
       <c r="J57" s="3" t="b">
         <v>0</v>
@@ -6110,10 +6109,10 @@
         <v>7</v>
       </c>
       <c r="H58" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="I58" s="3" t="s">
         <v>886</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>887</v>
       </c>
       <c r="J58" s="3" t="b">
         <v>0</v>
@@ -6140,7 +6139,7 @@
         <v>4</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
@@ -6181,7 +6180,7 @@
         <v>861</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F61" s="3">
         <v>5</v>
@@ -6212,13 +6211,13 @@
         <v>7</v>
       </c>
       <c r="H62" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="J62" s="3" t="s">
         <v>882</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>884</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>883</v>
       </c>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
@@ -6314,10 +6313,10 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="I66" s="3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="J66" s="3" t="b">
         <v>1</v>
@@ -6340,7 +6339,7 @@
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
       <c r="H67" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="I67" s="3" t="s">
         <v>854</v>
@@ -6366,10 +6365,10 @@
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
       <c r="H68" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="I68" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="J68" s="3" t="b">
         <v>1</v>
@@ -6392,10 +6391,10 @@
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
       <c r="H69" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="I69" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="J69" s="3" t="b">
         <v>1</v>
@@ -6418,7 +6417,7 @@
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
       <c r="H70" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="I70" s="3" t="s">
         <v>855</v>
@@ -6444,10 +6443,10 @@
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
       <c r="H71" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="I71" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="J71" s="3" t="b">
         <v>1</v>
@@ -6470,10 +6469,10 @@
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
       <c r="H72" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="I72" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="J72" s="3" t="b">
         <v>1</v>
@@ -6496,10 +6495,10 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="J73" s="3" t="b">
         <v>1</v>
@@ -6522,10 +6521,10 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J74" s="3" t="b">
         <v>1</v>
@@ -6548,10 +6547,10 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J75" s="3" t="b">
         <v>1</v>
@@ -6574,10 +6573,10 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J76" s="3" t="b">
         <v>1</v>
@@ -6600,10 +6599,10 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="J77" s="3" t="b">
         <v>1</v>
@@ -6626,10 +6625,10 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J78" s="3" t="b">
         <v>1</v>
@@ -6652,10 +6651,10 @@
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J79" s="3" t="b">
         <v>1</v>
@@ -6678,7 +6677,7 @@
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="I80" s="3" t="s">
         <v>859</v>
@@ -6704,10 +6703,10 @@
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="I81" s="3" t="s">
         <v>888</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>889</v>
       </c>
       <c r="J81" s="3" t="b">
         <v>0</v>
@@ -6722,7 +6721,7 @@
         <v>81</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
@@ -6894,10 +6893,10 @@
         <v>7</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="J89" s="3" t="b">
         <v>0</v>
@@ -6948,10 +6947,10 @@
         <v>7</v>
       </c>
       <c r="H91" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="I91" s="3" t="s">
         <v>886</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>887</v>
       </c>
       <c r="J91" s="3" t="b">
         <v>0</v>
@@ -6978,10 +6977,10 @@
         <v>7</v>
       </c>
       <c r="H92" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="I92" s="3" t="s">
         <v>886</v>
-      </c>
-      <c r="I92" s="3" t="s">
-        <v>887</v>
       </c>
       <c r="J92" s="3" t="b">
         <v>0</v>
@@ -7008,10 +7007,10 @@
         <v>7</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="I93" s="3" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="J93" s="3" t="b">
         <v>1</v>
@@ -7038,7 +7037,7 @@
         <v>4</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I94" s="3"/>
       <c r="J94" s="3"/>
@@ -7079,7 +7078,7 @@
         <v>861</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F96" s="3">
         <v>5</v>
@@ -7110,13 +7109,13 @@
         <v>7</v>
       </c>
       <c r="H97" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="J97" s="3" t="s">
         <v>882</v>
-      </c>
-      <c r="I97" s="3" t="s">
-        <v>884</v>
-      </c>
-      <c r="J97" s="3" t="s">
-        <v>883</v>
       </c>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
@@ -7212,10 +7211,10 @@
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="J101" s="3" t="b">
         <v>1</v>
@@ -7238,7 +7237,7 @@
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>854</v>
@@ -7264,10 +7263,10 @@
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="J103" s="3" t="b">
         <v>1</v>
@@ -7290,10 +7289,10 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="J104" s="3" t="b">
         <v>1</v>
@@ -7316,7 +7315,7 @@
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I105" s="3" t="s">
         <v>855</v>
@@ -7342,10 +7341,10 @@
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I106" s="3" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="J106" s="3" t="b">
         <v>1</v>
@@ -7368,10 +7367,10 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I107" s="3" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="J107" s="3" t="b">
         <v>1</v>
@@ -7394,10 +7393,10 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="J108" s="3" t="b">
         <v>1</v>
@@ -7420,10 +7419,10 @@
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
       <c r="H109" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I109" s="3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J109" s="3" t="b">
         <v>1</v>
@@ -7446,10 +7445,10 @@
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
       <c r="H110" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I110" s="3" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="J110" s="3" t="b">
         <v>1</v>
@@ -7472,10 +7471,10 @@
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
       <c r="H111" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I111" s="3" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J111" s="3" t="b">
         <v>1</v>
@@ -7498,10 +7497,10 @@
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
       <c r="H112" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="J112" s="3" t="b">
         <v>1</v>
@@ -7524,10 +7523,10 @@
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
       <c r="H113" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I113" s="3" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="J113" s="3" t="b">
         <v>1</v>
@@ -7550,10 +7549,10 @@
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
       <c r="H114" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I114" s="3" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J114" s="3" t="b">
         <v>1</v>
@@ -7576,7 +7575,7 @@
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
       <c r="H115" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I115" s="3" t="s">
         <v>859</v>
@@ -7602,10 +7601,10 @@
       <c r="F116" s="3"/>
       <c r="G116" s="3"/>
       <c r="H116" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="J116" s="3" t="b">
         <v>1</v>
@@ -7638,7 +7637,7 @@
         <v>117</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>620</v>
@@ -7648,7 +7647,7 @@
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="I118" s="3"/>
       <c r="J118" s="3"/>
@@ -7665,10 +7664,10 @@
         <v>832</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="120" spans="3:14">
@@ -7679,10 +7678,10 @@
         <v>832</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="121" spans="3:14">
@@ -7693,10 +7692,10 @@
         <v>832</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G121" s="3"/>
     </row>
